--- a/biology/Médecine/Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer/Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer.xlsx
+++ b/biology/Médecine/Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer/Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Organisation_europ%C3%A9enne_pour_la_recherche_et_le_traitement_du_cancer</t>
+          <t>Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Organisation européenne pour la recherche et le traitement du cancer (OERTC, en anglais : European Organisation for Research and Treatment of Cancer, EORTC) est une organisation non gouvernementale œuvrant pour promouvoir le combat contre le cancer en Europe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Organisation_europ%C3%A9enne_pour_la_recherche_et_le_traitement_du_cancer</t>
+          <t>Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'organisation est fondée comme organisation internationale sous droit belge en 1962 par des oncologues éminents, travaillant dans les instituts de recherche principaux en Union européenne et en Suisse. Elle a son siège à Bruxelles. À l'origine appelée Groupe européen de chimiothérapie anticancéreuse (GECA) elle change de nom en 1968.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Organisation_europ%C3%A9enne_pour_la_recherche_et_le_traitement_du_cancer</t>
+          <t>Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but de l'organisation est de développer, conduire, coordonner et stimuler la recherche transnationale et clinique en Europe pour améliorer la gestion du cancer et des problèmes liés en améliorant les chances de survie, mais aussi la qualité de vie des patients. 
 L'OERTC est multinationale et multidisciplinaire. Son réseau comprend plus de 300 hôpitaux ou centres de cancer dans plus de 30 pays, comprenant environ :
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Organisation_europ%C3%A9enne_pour_la_recherche_et_le_traitement_du_cancer</t>
+          <t>Organisation_européenne_pour_la_recherche_et_le_traitement_du_cancer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1962-1965 : Georges Mathé (Villejuif, France)
